--- a/jpcore-r4/feature/swg3-医療機関コード説明見直し/StructureDefinition-jp-medicationdispense.xlsx
+++ b/jpcore-r4/feature/swg3-医療機関コード説明見直し/StructureDefinition-jp-medicationdispense.xlsx
@@ -677,7 +677,7 @@
     <t>処方する製剤を表すコード。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationCode_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationCode_VS</t>
   </si>
   <si>
     <t>MedicationDispense.subject</t>
